--- a/Indicadores/02_datos_generados/metadatos.xlsx
+++ b/Indicadores/02_datos_generados/metadatos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="1191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="1192">
   <si>
     <t xml:space="preserve">no</t>
   </si>
@@ -1359,7 +1359,7 @@
     <t xml:space="preserve">http://www3.inegi.org.mx/sistemas/cni/escenario.aspx?idOrden=1.1&amp;ind=6200031306&amp;gen=372&amp;d=n</t>
   </si>
   <si>
-    <t xml:space="preserve">PIB distribución porcentual por entidad federativa</t>
+    <t xml:space="preserve">Distribución porcentual del PIB no petrolero por entidad federativa</t>
   </si>
   <si>
     <t xml:space="preserve">Participación porcentual en valores corrientes del Producto Interno Bruto de cada entidad federativa al total nacional</t>
@@ -1371,7 +1371,7 @@
     <t xml:space="preserve">http://www.inegi.org.mx/sistemas/bie/default.aspx?idserPadre=10200052002000200000</t>
   </si>
   <si>
-    <t xml:space="preserve">2003-2016</t>
+    <t xml:space="preserve">2003-2017</t>
   </si>
   <si>
     <t xml:space="preserve">Tasa de participación - 15 años y más</t>
@@ -2697,6 +2697,9 @@
   </si>
   <si>
     <t xml:space="preserve">Banco de Información Económica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-2016</t>
   </si>
   <si>
     <t xml:space="preserve">Autonomía financiera</t>
@@ -10385,7 +10388,7 @@
       </c>
       <c r="I192"/>
       <c r="J192" t="s">
-        <v>440</v>
+        <v>881</v>
       </c>
       <c r="K192" t="s">
         <v>62</v>
@@ -10396,16 +10399,16 @@
         <v>502</v>
       </c>
       <c r="B193" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C193" t="s">
         <v>12</v>
       </c>
       <c r="D193" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="E193" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="F193" t="s">
         <v>12</v>
@@ -10417,10 +10420,10 @@
         <v>719</v>
       </c>
       <c r="I193" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="J193" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="K193" t="s">
         <v>62</v>
@@ -10431,13 +10434,13 @@
         <v>503</v>
       </c>
       <c r="B194" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C194" t="s">
         <v>12</v>
       </c>
       <c r="D194" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="E194" t="s">
         <v>447</v>
@@ -10464,25 +10467,25 @@
         <v>504</v>
       </c>
       <c r="B195" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C195" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D195" t="s">
+        <v>891</v>
+      </c>
+      <c r="E195" t="s">
+        <v>892</v>
+      </c>
+      <c r="F195" t="s">
         <v>890</v>
-      </c>
-      <c r="E195" t="s">
-        <v>891</v>
-      </c>
-      <c r="F195" t="s">
-        <v>889</v>
       </c>
       <c r="G195" t="s">
         <v>251</v>
       </c>
       <c r="H195" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="I195"/>
       <c r="J195" t="s">
@@ -10497,25 +10500,25 @@
         <v>505</v>
       </c>
       <c r="B196" t="s">
+        <v>894</v>
+      </c>
+      <c r="C196" t="s">
+        <v>890</v>
+      </c>
+      <c r="D196" t="s">
+        <v>895</v>
+      </c>
+      <c r="E196" t="s">
+        <v>892</v>
+      </c>
+      <c r="F196" t="s">
+        <v>890</v>
+      </c>
+      <c r="G196" t="s">
+        <v>896</v>
+      </c>
+      <c r="H196" t="s">
         <v>893</v>
-      </c>
-      <c r="C196" t="s">
-        <v>889</v>
-      </c>
-      <c r="D196" t="s">
-        <v>894</v>
-      </c>
-      <c r="E196" t="s">
-        <v>891</v>
-      </c>
-      <c r="F196" t="s">
-        <v>889</v>
-      </c>
-      <c r="G196" t="s">
-        <v>895</v>
-      </c>
-      <c r="H196" t="s">
-        <v>892</v>
       </c>
       <c r="I196"/>
       <c r="J196" t="s">
@@ -10530,25 +10533,25 @@
         <v>506</v>
       </c>
       <c r="B197" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C197" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D197" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E197" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="F197" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="G197" t="s">
         <v>251</v>
       </c>
       <c r="H197" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="I197"/>
       <c r="J197" t="s">
@@ -10563,19 +10566,19 @@
         <v>507</v>
       </c>
       <c r="B198" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C198" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D198" t="s">
+        <v>901</v>
+      </c>
+      <c r="E198" t="s">
+        <v>902</v>
+      </c>
+      <c r="F198" t="s">
         <v>900</v>
-      </c>
-      <c r="E198" t="s">
-        <v>901</v>
-      </c>
-      <c r="F198" t="s">
-        <v>899</v>
       </c>
       <c r="G198" t="s">
         <v>251</v>
@@ -10596,16 +10599,16 @@
         <v>512</v>
       </c>
       <c r="B199" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C199" t="s">
         <v>12</v>
       </c>
       <c r="D199" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E199" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="F199" t="s">
         <v>12</v>
@@ -10618,7 +10621,7 @@
       </c>
       <c r="I199"/>
       <c r="J199" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="K199" t="s">
         <v>62</v>
@@ -10629,19 +10632,19 @@
         <v>516</v>
       </c>
       <c r="B200" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C200" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D200" t="s">
+        <v>907</v>
+      </c>
+      <c r="E200" t="s">
+        <v>908</v>
+      </c>
+      <c r="F200" t="s">
         <v>906</v>
-      </c>
-      <c r="E200" t="s">
-        <v>907</v>
-      </c>
-      <c r="F200" t="s">
-        <v>905</v>
       </c>
       <c r="G200" t="s">
         <v>34</v>
@@ -10651,7 +10654,7 @@
       </c>
       <c r="I200"/>
       <c r="J200" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="K200" t="s">
         <v>62</v>
@@ -10662,22 +10665,22 @@
         <v>520</v>
       </c>
       <c r="B201" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C201" t="s">
         <v>12</v>
       </c>
       <c r="D201" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E201" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="F201" t="s">
         <v>23</v>
       </c>
       <c r="G201" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H201" t="s">
         <v>719</v>
@@ -10695,25 +10698,25 @@
         <v>521</v>
       </c>
       <c r="B202" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C202" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D202" t="s">
+        <v>915</v>
+      </c>
+      <c r="E202" t="s">
+        <v>916</v>
+      </c>
+      <c r="F202" t="s">
         <v>914</v>
       </c>
-      <c r="E202" t="s">
-        <v>915</v>
-      </c>
-      <c r="F202" t="s">
-        <v>913</v>
-      </c>
       <c r="G202" t="s">
         <v>34</v>
       </c>
       <c r="H202" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="I202"/>
       <c r="J202" t="s">
@@ -10728,16 +10731,16 @@
         <v>522</v>
       </c>
       <c r="B203" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C203" t="s">
         <v>12</v>
       </c>
       <c r="D203" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E203" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="F203" t="s">
         <v>23</v>
@@ -10749,7 +10752,7 @@
         <v>719</v>
       </c>
       <c r="I203" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="J203" t="s">
         <v>429</v>
@@ -10763,16 +10766,16 @@
         <v>525</v>
       </c>
       <c r="B204" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C204" t="s">
         <v>12</v>
       </c>
       <c r="D204" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E204" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="F204" t="s">
         <v>12</v>
@@ -10785,7 +10788,7 @@
       </c>
       <c r="I204"/>
       <c r="J204" t="s">
-        <v>440</v>
+        <v>881</v>
       </c>
       <c r="K204" t="s">
         <v>62</v>
@@ -10796,16 +10799,16 @@
         <v>530</v>
       </c>
       <c r="B205" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C205" t="s">
         <v>12</v>
       </c>
       <c r="D205" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="E205" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="F205" t="s">
         <v>12</v>
@@ -10814,13 +10817,13 @@
         <v>34</v>
       </c>
       <c r="H205" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="I205" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="J205" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="K205" t="s">
         <v>19</v>
@@ -10831,13 +10834,13 @@
         <v>531</v>
       </c>
       <c r="B206" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C206" t="s">
         <v>12</v>
       </c>
       <c r="D206" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E206" t="s">
         <v>447</v>
@@ -10864,16 +10867,16 @@
         <v>533</v>
       </c>
       <c r="B207" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C207" t="s">
         <v>12</v>
       </c>
       <c r="D207" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E207" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F207" t="s">
         <v>23</v>
@@ -10882,10 +10885,10 @@
         <v>251</v>
       </c>
       <c r="H207" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="I207" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="J207" t="s">
         <v>530</v>
@@ -10899,16 +10902,16 @@
         <v>534</v>
       </c>
       <c r="B208" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C208" t="s">
         <v>12</v>
       </c>
       <c r="D208" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E208" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="F208" t="s">
         <v>12</v>
@@ -10917,11 +10920,11 @@
         <v>59</v>
       </c>
       <c r="H208" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I208"/>
       <c r="J208" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="K208" t="s">
         <v>19</v>
@@ -10932,16 +10935,16 @@
         <v>536</v>
       </c>
       <c r="B209" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C209" t="s">
         <v>12</v>
       </c>
       <c r="D209" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E209" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="F209" t="s">
         <v>12</v>
@@ -10965,16 +10968,16 @@
         <v>537</v>
       </c>
       <c r="B210" t="s">
+        <v>944</v>
+      </c>
+      <c r="C210" t="s">
+        <v>12</v>
+      </c>
+      <c r="D210" t="s">
+        <v>945</v>
+      </c>
+      <c r="E210" t="s">
         <v>943</v>
-      </c>
-      <c r="C210" t="s">
-        <v>12</v>
-      </c>
-      <c r="D210" t="s">
-        <v>944</v>
-      </c>
-      <c r="E210" t="s">
-        <v>942</v>
       </c>
       <c r="F210" t="s">
         <v>12</v>
@@ -10998,13 +11001,13 @@
         <v>538</v>
       </c>
       <c r="B211" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C211" t="s">
         <v>12</v>
       </c>
       <c r="D211" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="E211" t="s">
         <v>447</v>
@@ -11031,13 +11034,13 @@
         <v>541</v>
       </c>
       <c r="B212" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C212" t="s">
         <v>12</v>
       </c>
       <c r="D212" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E212" t="s">
         <v>484</v>
@@ -11049,11 +11052,11 @@
         <v>34</v>
       </c>
       <c r="H212" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="I212"/>
       <c r="J212" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="K212" t="s">
         <v>19</v>
@@ -11064,16 +11067,16 @@
         <v>544</v>
       </c>
       <c r="B213" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C213" t="s">
         <v>12</v>
       </c>
       <c r="D213" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E213" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="F213" t="s">
         <v>12</v>
@@ -11085,7 +11088,7 @@
         <v>849</v>
       </c>
       <c r="I213" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="J213" t="s">
         <v>253</v>
@@ -11099,16 +11102,16 @@
         <v>545</v>
       </c>
       <c r="B214" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C214" t="s">
         <v>12</v>
       </c>
       <c r="D214" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E214" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="F214" t="s">
         <v>12</v>
@@ -11117,7 +11120,7 @@
         <v>15</v>
       </c>
       <c r="H214" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="I214"/>
       <c r="J214" t="s">
@@ -11132,25 +11135,25 @@
         <v>549</v>
       </c>
       <c r="B215" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C215" t="s">
         <v>12</v>
       </c>
       <c r="D215" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E215" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="F215" t="s">
         <v>23</v>
       </c>
       <c r="G215" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H215" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="I215"/>
       <c r="J215" t="s">
@@ -11165,16 +11168,16 @@
         <v>550</v>
       </c>
       <c r="B216" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C216" t="s">
         <v>12</v>
       </c>
       <c r="D216" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="E216" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="F216" t="s">
         <v>12</v>
@@ -11183,7 +11186,7 @@
         <v>34</v>
       </c>
       <c r="H216" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="I216"/>
       <c r="J216" t="s">
@@ -11198,25 +11201,25 @@
         <v>551</v>
       </c>
       <c r="B217" t="s">
+        <v>969</v>
+      </c>
+      <c r="C217" t="s">
+        <v>12</v>
+      </c>
+      <c r="D217" t="s">
+        <v>970</v>
+      </c>
+      <c r="E217" t="s">
+        <v>967</v>
+      </c>
+      <c r="F217" t="s">
+        <v>12</v>
+      </c>
+      <c r="G217" t="s">
+        <v>34</v>
+      </c>
+      <c r="H217" t="s">
         <v>968</v>
-      </c>
-      <c r="C217" t="s">
-        <v>12</v>
-      </c>
-      <c r="D217" t="s">
-        <v>969</v>
-      </c>
-      <c r="E217" t="s">
-        <v>966</v>
-      </c>
-      <c r="F217" t="s">
-        <v>12</v>
-      </c>
-      <c r="G217" t="s">
-        <v>34</v>
-      </c>
-      <c r="H217" t="s">
-        <v>967</v>
       </c>
       <c r="I217"/>
       <c r="J217" t="s">
@@ -11231,31 +11234,31 @@
         <v>552</v>
       </c>
       <c r="B218" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C218" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D218" t="s">
+        <v>973</v>
+      </c>
+      <c r="E218" t="s">
+        <v>974</v>
+      </c>
+      <c r="F218" t="s">
         <v>972</v>
       </c>
-      <c r="E218" t="s">
-        <v>973</v>
-      </c>
-      <c r="F218" t="s">
-        <v>971</v>
-      </c>
       <c r="G218" t="s">
         <v>34</v>
       </c>
       <c r="H218" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="I218" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="J218" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="K218" t="s">
         <v>62</v>
@@ -11266,16 +11269,16 @@
         <v>554</v>
       </c>
       <c r="B219" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C219" t="s">
         <v>293</v>
       </c>
       <c r="D219" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E219" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="F219" t="s">
         <v>293</v>
@@ -11284,10 +11287,10 @@
         <v>251</v>
       </c>
       <c r="H219" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="I219" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="J219" t="s">
         <v>530</v>
@@ -11301,16 +11304,16 @@
         <v>555</v>
       </c>
       <c r="B220" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C220" t="s">
         <v>12</v>
       </c>
       <c r="D220" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E220" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="F220" t="s">
         <v>12</v>
@@ -11334,25 +11337,25 @@
         <v>556</v>
       </c>
       <c r="B221" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C221" t="s">
         <v>31</v>
       </c>
       <c r="D221" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E221" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="F221" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="G221" t="s">
         <v>251</v>
       </c>
       <c r="H221" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="I221"/>
       <c r="J221" t="s">
@@ -11367,13 +11370,13 @@
         <v>557</v>
       </c>
       <c r="B222" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C222" t="s">
         <v>321</v>
       </c>
       <c r="D222" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E222" t="s">
         <v>447</v>
@@ -11400,16 +11403,16 @@
         <v>558</v>
       </c>
       <c r="B223" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C223" t="s">
         <v>321</v>
       </c>
       <c r="D223" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E223" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F223" t="s">
         <v>321</v>
@@ -11418,13 +11421,13 @@
         <v>59</v>
       </c>
       <c r="H223" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="I223" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="J223" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="K223" t="s">
         <v>19</v>
@@ -11435,16 +11438,16 @@
         <v>559</v>
       </c>
       <c r="B224" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C224" t="s">
         <v>321</v>
       </c>
       <c r="D224" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E224" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="F224" t="s">
         <v>12</v>
@@ -11468,16 +11471,16 @@
         <v>560</v>
       </c>
       <c r="B225" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C225" t="s">
         <v>321</v>
       </c>
       <c r="D225" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E225" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F225" t="s">
         <v>321</v>
@@ -11486,7 +11489,7 @@
         <v>59</v>
       </c>
       <c r="H225" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="I225"/>
       <c r="J225" t="s">
@@ -11501,16 +11504,16 @@
         <v>561</v>
       </c>
       <c r="B226" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C226" t="s">
         <v>321</v>
       </c>
       <c r="D226" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E226" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="F226" t="s">
         <v>321</v>
@@ -11534,16 +11537,16 @@
         <v>562</v>
       </c>
       <c r="B227" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C227" t="s">
         <v>321</v>
       </c>
       <c r="D227" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E227" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="F227" t="s">
         <v>321</v>
@@ -11567,25 +11570,25 @@
         <v>563</v>
       </c>
       <c r="B228" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C228" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D228" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="E228" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="F228" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="G228" t="s">
         <v>34</v>
       </c>
       <c r="H228" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="I228"/>
       <c r="J228" t="s">
@@ -11600,25 +11603,25 @@
         <v>564</v>
       </c>
       <c r="B229" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C229" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D229" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E229" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F229" t="s">
         <v>1016</v>
       </c>
-      <c r="E229" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F229" t="s">
-        <v>1015</v>
-      </c>
       <c r="G229" t="s">
         <v>34</v>
       </c>
       <c r="H229" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="I229"/>
       <c r="J229" t="s">
@@ -11633,25 +11636,25 @@
         <v>565</v>
       </c>
       <c r="B230" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C230" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D230" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E230" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="F230" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="G230" t="s">
         <v>15</v>
       </c>
       <c r="H230" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="I230"/>
       <c r="J230" t="s">
@@ -11666,28 +11669,28 @@
         <v>569</v>
       </c>
       <c r="B231" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C231" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D231" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E231" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F231" t="s">
         <v>1026</v>
-      </c>
-      <c r="E231" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F231" t="s">
-        <v>1025</v>
       </c>
       <c r="G231" t="s">
         <v>251</v>
       </c>
       <c r="H231" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="I231" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="J231" t="s">
         <v>530</v>
@@ -11701,16 +11704,16 @@
         <v>571</v>
       </c>
       <c r="B232" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C232" t="s">
         <v>12</v>
       </c>
       <c r="D232" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="E232" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="F232" t="s">
         <v>23</v>
@@ -11719,11 +11722,11 @@
         <v>251</v>
       </c>
       <c r="H232" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="I232"/>
       <c r="J232" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="K232" t="s">
         <v>19</v>
@@ -11734,25 +11737,25 @@
         <v>572</v>
       </c>
       <c r="B233" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C233" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D233" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="E233" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F233" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="G233" t="s">
         <v>59</v>
       </c>
       <c r="H233" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="I233"/>
       <c r="J233" t="s">
@@ -11767,16 +11770,16 @@
         <v>574</v>
       </c>
       <c r="B234" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C234" t="s">
         <v>12</v>
       </c>
       <c r="D234" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="E234" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="F234" t="s">
         <v>12</v>
@@ -11800,16 +11803,16 @@
         <v>575</v>
       </c>
       <c r="B235" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C235" t="s">
         <v>12</v>
       </c>
       <c r="D235" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="E235" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="F235" t="s">
         <v>23</v>
@@ -11818,11 +11821,11 @@
         <v>251</v>
       </c>
       <c r="H235" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="I235"/>
       <c r="J235" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="K235" t="s">
         <v>19</v>
@@ -11833,29 +11836,29 @@
         <v>576</v>
       </c>
       <c r="B236" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C236" t="s">
         <v>31</v>
       </c>
       <c r="D236" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E236" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="F236" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="G236" t="s">
         <v>15</v>
       </c>
       <c r="H236" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I236"/>
       <c r="J236" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="K236" t="s">
         <v>19</v>
@@ -11866,31 +11869,31 @@
         <v>578</v>
       </c>
       <c r="B237" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C237" t="s">
         <v>31</v>
       </c>
       <c r="D237" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="E237" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="F237" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="G237" t="s">
         <v>15</v>
       </c>
       <c r="H237" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="I237" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="J237" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="K237" t="s">
         <v>19</v>
@@ -11901,16 +11904,16 @@
         <v>580</v>
       </c>
       <c r="B238" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C238" t="s">
         <v>31</v>
       </c>
       <c r="D238" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="E238" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="F238" t="s">
         <v>31</v>
@@ -11919,13 +11922,13 @@
         <v>317</v>
       </c>
       <c r="H238" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="I238" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="J238" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="K238" t="s">
         <v>19</v>
@@ -11936,25 +11939,25 @@
         <v>583</v>
       </c>
       <c r="B239" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C239" t="s">
         <v>31</v>
       </c>
       <c r="D239" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="E239" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="F239" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="G239" t="s">
         <v>59</v>
       </c>
       <c r="H239" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="I239"/>
       <c r="J239" t="s">
@@ -11969,16 +11972,16 @@
         <v>586</v>
       </c>
       <c r="B240" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C240" t="s">
         <v>12</v>
       </c>
       <c r="D240" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E240" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="F240" t="s">
         <v>12</v>
@@ -11991,7 +11994,7 @@
       </c>
       <c r="I240"/>
       <c r="J240" t="s">
-        <v>440</v>
+        <v>881</v>
       </c>
       <c r="K240" t="s">
         <v>62</v>
@@ -12002,16 +12005,16 @@
         <v>587</v>
       </c>
       <c r="B241" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C241" t="s">
+        <v>12</v>
+      </c>
+      <c r="D241" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E241" t="s">
         <v>1070</v>
-      </c>
-      <c r="C241" t="s">
-        <v>12</v>
-      </c>
-      <c r="D241" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E241" t="s">
-        <v>1069</v>
       </c>
       <c r="F241" t="s">
         <v>12</v>
@@ -12024,7 +12027,7 @@
       </c>
       <c r="I241"/>
       <c r="J241" t="s">
-        <v>440</v>
+        <v>881</v>
       </c>
       <c r="K241" t="s">
         <v>62</v>
@@ -12035,16 +12038,16 @@
         <v>588</v>
       </c>
       <c r="B242" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C242" t="s">
         <v>12</v>
       </c>
       <c r="D242" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="E242" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="F242" t="s">
         <v>12</v>
@@ -12057,7 +12060,7 @@
       </c>
       <c r="I242"/>
       <c r="J242" t="s">
-        <v>440</v>
+        <v>881</v>
       </c>
       <c r="K242" t="s">
         <v>62</v>
@@ -12068,19 +12071,19 @@
         <v>589</v>
       </c>
       <c r="B243" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C243" t="s">
         <v>425</v>
       </c>
       <c r="D243" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="E243" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="F243" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="G243" t="s">
         <v>34</v>
@@ -12101,16 +12104,16 @@
         <v>590</v>
       </c>
       <c r="B244" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C244" t="s">
         <v>12</v>
       </c>
       <c r="D244" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="E244" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="F244" t="s">
         <v>12</v>
@@ -12119,11 +12122,11 @@
         <v>34</v>
       </c>
       <c r="H244" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="I244"/>
       <c r="J244" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="K244" t="s">
         <v>62</v>
@@ -12134,29 +12137,29 @@
         <v>591</v>
       </c>
       <c r="B245" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C245" t="s">
         <v>31</v>
       </c>
       <c r="D245" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="E245" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="F245" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="G245" t="s">
         <v>34</v>
       </c>
       <c r="H245" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="I245"/>
       <c r="J245" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="K245" t="s">
         <v>62</v>
@@ -12167,16 +12170,16 @@
         <v>592</v>
       </c>
       <c r="B246" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C246" t="s">
         <v>12</v>
       </c>
       <c r="D246" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="E246" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="F246" t="s">
         <v>23</v>
@@ -12185,7 +12188,7 @@
         <v>15</v>
       </c>
       <c r="H246" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="I246"/>
       <c r="J246" t="s">
@@ -12200,16 +12203,16 @@
         <v>593</v>
       </c>
       <c r="B247" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C247" t="s">
         <v>12</v>
       </c>
       <c r="D247" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="E247" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="F247" t="s">
         <v>12</v>
@@ -12222,7 +12225,7 @@
       </c>
       <c r="I247"/>
       <c r="J247" t="s">
-        <v>440</v>
+        <v>881</v>
       </c>
       <c r="K247" t="s">
         <v>62</v>
@@ -12233,16 +12236,16 @@
         <v>594</v>
       </c>
       <c r="B248" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C248" t="s">
         <v>321</v>
       </c>
       <c r="D248" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="E248" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="F248" t="s">
         <v>321</v>
@@ -12251,13 +12254,13 @@
         <v>59</v>
       </c>
       <c r="H248" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I248" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="J248" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="K248" t="s">
         <v>62</v>
@@ -12268,16 +12271,16 @@
         <v>595</v>
       </c>
       <c r="B249" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C249" t="s">
         <v>12</v>
       </c>
       <c r="D249" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="E249" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F249" t="s">
         <v>12</v>
@@ -12286,11 +12289,11 @@
         <v>34</v>
       </c>
       <c r="H249" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="I249"/>
       <c r="J249" t="s">
-        <v>440</v>
+        <v>881</v>
       </c>
       <c r="K249" t="s">
         <v>62</v>
@@ -12301,16 +12304,16 @@
         <v>597</v>
       </c>
       <c r="B250" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C250" t="s">
         <v>12</v>
       </c>
       <c r="D250" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="E250" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="F250" t="s">
         <v>12</v>
@@ -12319,11 +12322,11 @@
         <v>251</v>
       </c>
       <c r="H250" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="I250"/>
       <c r="J250" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="K250" t="s">
         <v>62</v>
@@ -12334,19 +12337,19 @@
         <v>598</v>
       </c>
       <c r="B251" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C251" t="s">
         <v>12</v>
       </c>
       <c r="D251" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="E251" t="s">
         <v>825</v>
       </c>
       <c r="F251" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="G251" t="s">
         <v>34</v>
@@ -12356,7 +12359,7 @@
       </c>
       <c r="I251"/>
       <c r="J251" t="s">
-        <v>440</v>
+        <v>881</v>
       </c>
       <c r="K251" t="s">
         <v>62</v>
@@ -12367,13 +12370,13 @@
         <v>599</v>
       </c>
       <c r="B252" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C252" t="s">
         <v>12</v>
       </c>
       <c r="D252" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="E252" t="s">
         <v>825</v>
@@ -12389,7 +12392,7 @@
       </c>
       <c r="I252"/>
       <c r="J252" t="s">
-        <v>440</v>
+        <v>881</v>
       </c>
       <c r="K252" t="s">
         <v>62</v>
@@ -12400,13 +12403,13 @@
         <v>600</v>
       </c>
       <c r="B253" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C253" t="s">
         <v>12</v>
       </c>
       <c r="D253" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="E253" t="s">
         <v>825</v>
@@ -12433,16 +12436,16 @@
         <v>601</v>
       </c>
       <c r="B254" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C254" t="s">
         <v>12</v>
       </c>
       <c r="D254" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="E254" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="F254" t="s">
         <v>12</v>
@@ -12451,11 +12454,11 @@
         <v>34</v>
       </c>
       <c r="H254" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="I254"/>
       <c r="J254" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="K254" t="s">
         <v>62</v>
@@ -12466,29 +12469,29 @@
         <v>602</v>
       </c>
       <c r="B255" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C255" t="s">
         <v>12</v>
       </c>
       <c r="D255" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="E255" t="s">
         <v>447</v>
       </c>
       <c r="F255" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="G255" t="s">
         <v>34</v>
       </c>
       <c r="H255" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="I255"/>
       <c r="J255" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="K255" t="s">
         <v>62</v>
@@ -12499,16 +12502,16 @@
         <v>604</v>
       </c>
       <c r="B256" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C256" t="s">
         <v>321</v>
       </c>
       <c r="D256" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="E256" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="F256" t="s">
         <v>321</v>
@@ -12517,7 +12520,7 @@
         <v>34</v>
       </c>
       <c r="H256" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="I256"/>
       <c r="J256" t="s">
@@ -12532,16 +12535,16 @@
         <v>605</v>
       </c>
       <c r="B257" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C257" t="s">
         <v>321</v>
       </c>
       <c r="D257" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="E257" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="F257" t="s">
         <v>321</v>
@@ -12550,7 +12553,7 @@
         <v>34</v>
       </c>
       <c r="H257" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="I257"/>
       <c r="J257" t="s">
@@ -12565,16 +12568,16 @@
         <v>606</v>
       </c>
       <c r="B258" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C258" t="s">
         <v>550</v>
       </c>
       <c r="D258" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="E258" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="F258" t="s">
         <v>637</v>
@@ -12583,13 +12586,13 @@
         <v>34</v>
       </c>
       <c r="H258" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="I258" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="J258" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="K258" t="s">
         <v>62</v>
@@ -12600,16 +12603,16 @@
         <v>607</v>
       </c>
       <c r="B259" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C259" t="s">
         <v>12</v>
       </c>
       <c r="D259" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="E259" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="F259" t="s">
         <v>12</v>
@@ -12633,16 +12636,16 @@
         <v>608</v>
       </c>
       <c r="B260" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C260" t="s">
+        <v>12</v>
+      </c>
+      <c r="D260" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E260" t="s">
         <v>1140</v>
-      </c>
-      <c r="C260" t="s">
-        <v>12</v>
-      </c>
-      <c r="D260" t="s">
-        <v>1141</v>
-      </c>
-      <c r="E260" t="s">
-        <v>1139</v>
       </c>
       <c r="F260" t="s">
         <v>12</v>
@@ -12666,16 +12669,16 @@
         <v>609</v>
       </c>
       <c r="B261" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C261" t="s">
         <v>12</v>
       </c>
       <c r="D261" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="E261" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="F261" t="s">
         <v>12</v>
@@ -12699,16 +12702,16 @@
         <v>610</v>
       </c>
       <c r="B262" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C262" t="s">
         <v>12</v>
       </c>
       <c r="D262" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="E262" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="F262" t="s">
         <v>12</v>
@@ -12732,16 +12735,16 @@
         <v>611</v>
       </c>
       <c r="B263" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C263" t="s">
         <v>12</v>
       </c>
       <c r="D263" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="E263" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="F263" t="s">
         <v>12</v>
@@ -12750,7 +12753,7 @@
         <v>251</v>
       </c>
       <c r="H263" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="I263"/>
       <c r="J263" t="s">
@@ -12765,16 +12768,16 @@
         <v>612</v>
       </c>
       <c r="B264" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C264" t="s">
         <v>12</v>
       </c>
       <c r="D264" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="E264" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="F264" t="s">
         <v>12</v>
@@ -12783,7 +12786,7 @@
         <v>251</v>
       </c>
       <c r="H264" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="I264"/>
       <c r="J264" t="s">
@@ -12798,16 +12801,16 @@
         <v>613</v>
       </c>
       <c r="B265" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C265" t="s">
         <v>12</v>
       </c>
       <c r="D265" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="E265" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="F265" t="s">
         <v>12</v>
@@ -12816,7 +12819,7 @@
         <v>251</v>
       </c>
       <c r="H265" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="I265"/>
       <c r="J265" t="s">
@@ -12831,16 +12834,16 @@
         <v>614</v>
       </c>
       <c r="B266" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="C266" t="s">
         <v>12</v>
       </c>
       <c r="D266" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="E266" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="F266" t="s">
         <v>12</v>
@@ -12849,7 +12852,7 @@
         <v>251</v>
       </c>
       <c r="H266" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="I266"/>
       <c r="J266" t="s">
@@ -12864,16 +12867,16 @@
         <v>615</v>
       </c>
       <c r="B267" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C267" t="s">
         <v>12</v>
       </c>
       <c r="D267" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="E267" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="F267" t="s">
         <v>12</v>
@@ -12882,7 +12885,7 @@
         <v>251</v>
       </c>
       <c r="H267" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="I267"/>
       <c r="J267" t="s">
@@ -12897,16 +12900,16 @@
         <v>616</v>
       </c>
       <c r="B268" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C268" t="s">
         <v>12</v>
       </c>
       <c r="D268" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="E268" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="F268" t="s">
         <v>12</v>
@@ -12915,7 +12918,7 @@
         <v>251</v>
       </c>
       <c r="H268" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="I268"/>
       <c r="J268" t="s">
@@ -12930,16 +12933,16 @@
         <v>617</v>
       </c>
       <c r="B269" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="C269" t="s">
         <v>12</v>
       </c>
       <c r="D269" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="E269" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="F269" t="s">
         <v>12</v>
@@ -12952,7 +12955,7 @@
       </c>
       <c r="I269"/>
       <c r="J269" t="s">
-        <v>440</v>
+        <v>881</v>
       </c>
       <c r="K269" t="s">
         <v>62</v>
@@ -12963,16 +12966,16 @@
         <v>618</v>
       </c>
       <c r="B270" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C270" t="s">
         <v>12</v>
       </c>
       <c r="D270" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="E270" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="F270" t="s">
         <v>12</v>
@@ -12985,7 +12988,7 @@
       </c>
       <c r="I270"/>
       <c r="J270" t="s">
-        <v>440</v>
+        <v>881</v>
       </c>
       <c r="K270" t="s">
         <v>62</v>
@@ -12996,16 +12999,16 @@
         <v>620</v>
       </c>
       <c r="B271" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C271" t="s">
         <v>12</v>
       </c>
       <c r="D271" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="E271" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="F271" t="s">
         <v>12</v>
@@ -13014,7 +13017,7 @@
         <v>15</v>
       </c>
       <c r="H271" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="I271"/>
       <c r="J271" t="s">
@@ -13029,16 +13032,16 @@
         <v>621</v>
       </c>
       <c r="B272" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C272" t="s">
         <v>12</v>
       </c>
       <c r="D272" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="E272" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="F272" t="s">
         <v>12</v>
@@ -13047,13 +13050,13 @@
         <v>34</v>
       </c>
       <c r="H272" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="I272" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="J272" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="K272" t="s">
         <v>19</v>
@@ -13064,31 +13067,31 @@
         <v>622</v>
       </c>
       <c r="B273" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C273" t="s">
+        <v>12</v>
+      </c>
+      <c r="D273" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E273" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F273" t="s">
+        <v>12</v>
+      </c>
+      <c r="G273" t="s">
+        <v>34</v>
+      </c>
+      <c r="H273" t="s">
+        <v>1172</v>
+      </c>
+      <c r="I273" t="s">
+        <v>1177</v>
+      </c>
+      <c r="J273" t="s">
         <v>1174</v>
-      </c>
-      <c r="C273" t="s">
-        <v>12</v>
-      </c>
-      <c r="D273" t="s">
-        <v>1175</v>
-      </c>
-      <c r="E273" t="s">
-        <v>1170</v>
-      </c>
-      <c r="F273" t="s">
-        <v>12</v>
-      </c>
-      <c r="G273" t="s">
-        <v>34</v>
-      </c>
-      <c r="H273" t="s">
-        <v>1171</v>
-      </c>
-      <c r="I273" t="s">
-        <v>1176</v>
-      </c>
-      <c r="J273" t="s">
-        <v>1173</v>
       </c>
       <c r="K273" t="s">
         <v>19</v>
@@ -13099,16 +13102,16 @@
         <v>623</v>
       </c>
       <c r="B274" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="C274" t="s">
         <v>12</v>
       </c>
       <c r="D274" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="E274" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="F274" t="s">
         <v>12</v>
@@ -13117,13 +13120,13 @@
         <v>34</v>
       </c>
       <c r="H274" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="I274" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="J274" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="K274" t="s">
         <v>19</v>
@@ -13134,25 +13137,25 @@
         <v>625</v>
       </c>
       <c r="B275" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C275" t="s">
         <v>12</v>
       </c>
       <c r="D275" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="E275" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="F275" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="G275" t="s">
         <v>34</v>
       </c>
       <c r="H275" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="I275"/>
       <c r="J275" t="s">
@@ -13167,16 +13170,16 @@
         <v>627</v>
       </c>
       <c r="B276" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C276" t="s">
         <v>12</v>
       </c>
       <c r="D276" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="E276" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="F276" t="s">
         <v>12</v>
@@ -13185,7 +13188,7 @@
         <v>34</v>
       </c>
       <c r="H276" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="I276"/>
       <c r="J276" t="s">
@@ -13200,16 +13203,16 @@
         <v>628</v>
       </c>
       <c r="B277" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C277" t="s">
         <v>12</v>
       </c>
       <c r="D277" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="E277" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="F277" t="s">
         <v>12</v>
@@ -13218,11 +13221,11 @@
         <v>34</v>
       </c>
       <c r="H277" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="I277"/>
       <c r="J277" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="K277" t="s">
         <v>19</v>
@@ -13233,16 +13236,16 @@
         <v>629</v>
       </c>
       <c r="B278" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="C278" t="s">
         <v>12</v>
       </c>
       <c r="D278" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="E278" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="F278" t="s">
         <v>12</v>
@@ -13251,11 +13254,11 @@
         <v>34</v>
       </c>
       <c r="H278" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="I278"/>
       <c r="J278" t="s">
-        <v>440</v>
+        <v>881</v>
       </c>
       <c r="K278" t="s">
         <v>19</v>
